--- a/website/palangre_syc/media/july2022-FV GOLDEN FULL NO.168.xlsx
+++ b/website/palangre_syc/media/july2022-FV GOLDEN FULL NO.168.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\COMMON FILES\FV GOLDEN FULL NO.168\LOGBOOK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clementine\Documents\GitHub\observe-logbooks-reader-webapp\website\palangre_syc\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_D8BEC5804640D8B4C4328AF681210562D7229FE0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D07FAA-4A49-46E3-96E0-AA2BFBA454A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ver 17.6 - page 1" sheetId="1" r:id="rId1"/>
     <sheet name="Ver 17.6 - page 2" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -760,7 +771,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -936,7 +947,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="113">
+  <borders count="116">
     <border>
       <left/>
       <right/>
@@ -2386,11 +2397,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2737,15 +2785,336 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="20" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2773,329 +3142,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3103,14 +3184,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3121,64 +3221,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4277,11 +4334,11 @@
   </sheetPr>
   <dimension ref="A2:AL59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9:AI10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="89" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45:K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
     <col min="2" max="10" width="9.85546875" style="1" customWidth="1"/>
@@ -4292,7 +4349,7 @@
     <col min="39" max="16384" width="6.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:38" ht="46.5">
+    <row r="2" spans="1:38" ht="46.5" x14ac:dyDescent="0.7">
       <c r="B2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="46"/>
@@ -4326,7 +4383,7 @@
       <c r="AK2" s="52"/>
       <c r="AL2" s="53"/>
     </row>
-    <row r="3" spans="1:38" ht="46.5">
+    <row r="3" spans="1:38" ht="46.5" x14ac:dyDescent="0.7">
       <c r="B3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="46"/>
@@ -4363,7 +4420,7 @@
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
     </row>
-    <row r="4" spans="1:38" ht="46.5">
+    <row r="4" spans="1:38" ht="46.5" x14ac:dyDescent="0.7">
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="46"/>
@@ -4400,7 +4457,7 @@
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
     </row>
-    <row r="5" spans="1:38" ht="26.45" customHeight="1">
+    <row r="5" spans="1:38" ht="26.45" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
@@ -4438,7 +4495,7 @@
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
     </row>
-    <row r="6" spans="1:38" ht="26.45" customHeight="1" thickBot="1">
+    <row r="6" spans="1:38" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
@@ -4476,203 +4533,203 @@
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
     </row>
-    <row r="7" spans="1:38" s="9" customFormat="1" ht="34.9" customHeight="1" thickBot="1">
-      <c r="A7" s="164" t="s">
+    <row r="7" spans="1:38" s="9" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="165"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="167"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="160"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="164" t="s">
+      <c r="L7" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="165"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="165"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="165"/>
-      <c r="R7" s="165"/>
-      <c r="S7" s="165"/>
-      <c r="T7" s="165"/>
-      <c r="U7" s="165"/>
-      <c r="V7" s="165"/>
-      <c r="W7" s="165"/>
-      <c r="X7" s="165"/>
-      <c r="Y7" s="165"/>
-      <c r="Z7" s="165"/>
-      <c r="AA7" s="165"/>
-      <c r="AB7" s="165"/>
-      <c r="AC7" s="166"/>
-      <c r="AD7" s="164" t="s">
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="159"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="159"/>
+      <c r="S7" s="159"/>
+      <c r="T7" s="159"/>
+      <c r="U7" s="159"/>
+      <c r="V7" s="159"/>
+      <c r="W7" s="159"/>
+      <c r="X7" s="159"/>
+      <c r="Y7" s="159"/>
+      <c r="Z7" s="159"/>
+      <c r="AA7" s="159"/>
+      <c r="AB7" s="159"/>
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="165"/>
-      <c r="AG7" s="165"/>
-      <c r="AH7" s="165"/>
-      <c r="AI7" s="167"/>
+      <c r="AE7" s="159"/>
+      <c r="AF7" s="159"/>
+      <c r="AG7" s="159"/>
+      <c r="AH7" s="159"/>
+      <c r="AI7" s="160"/>
     </row>
-    <row r="8" spans="1:38" s="9" customFormat="1" ht="34.9" customHeight="1" thickBot="1">
-      <c r="A8" s="199" t="s">
+    <row r="8" spans="1:38" s="9" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="200"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
-      <c r="G8" s="200"/>
-      <c r="H8" s="200"/>
-      <c r="I8" s="200"/>
-      <c r="J8" s="201"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="163"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="241" t="s">
+      <c r="L8" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="242"/>
-      <c r="N8" s="242"/>
-      <c r="O8" s="242"/>
-      <c r="P8" s="243"/>
-      <c r="Q8" s="193"/>
-      <c r="R8" s="194"/>
-      <c r="S8" s="194"/>
-      <c r="T8" s="194"/>
-      <c r="U8" s="174" t="s">
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="128"/>
+      <c r="Q8" s="205"/>
+      <c r="R8" s="206"/>
+      <c r="S8" s="206"/>
+      <c r="T8" s="206"/>
+      <c r="U8" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="V8" s="175"/>
-      <c r="W8" s="175"/>
-      <c r="X8" s="175"/>
-      <c r="Y8" s="176"/>
-      <c r="Z8" s="192"/>
-      <c r="AA8" s="158"/>
-      <c r="AB8" s="158"/>
-      <c r="AC8" s="159"/>
-      <c r="AD8" s="217" t="s">
+      <c r="V8" s="185"/>
+      <c r="W8" s="185"/>
+      <c r="X8" s="185"/>
+      <c r="Y8" s="186"/>
+      <c r="Z8" s="202"/>
+      <c r="AA8" s="203"/>
+      <c r="AB8" s="203"/>
+      <c r="AC8" s="204"/>
+      <c r="AD8" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="AE8" s="218"/>
-      <c r="AF8" s="219"/>
-      <c r="AG8" s="189">
+      <c r="AE8" s="153"/>
+      <c r="AF8" s="154"/>
+      <c r="AG8" s="199">
         <v>44774</v>
       </c>
-      <c r="AH8" s="190"/>
-      <c r="AI8" s="191"/>
+      <c r="AH8" s="200"/>
+      <c r="AI8" s="201"/>
     </row>
-    <row r="9" spans="1:38" s="9" customFormat="1" ht="34.9" customHeight="1">
-      <c r="A9" s="202" t="s">
+    <row r="9" spans="1:38" s="9" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="203"/>
-      <c r="C9" s="203"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="203"/>
-      <c r="F9" s="203"/>
-      <c r="G9" s="203"/>
-      <c r="H9" s="203"/>
-      <c r="I9" s="203"/>
-      <c r="J9" s="204"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="173"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="225" t="s">
+      <c r="L9" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="226"/>
-      <c r="N9" s="226"/>
-      <c r="O9" s="226"/>
-      <c r="P9" s="227"/>
-      <c r="Q9" s="195"/>
-      <c r="R9" s="196"/>
-      <c r="S9" s="196"/>
-      <c r="T9" s="196"/>
-      <c r="U9" s="177" t="s">
+      <c r="M9" s="130"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="131"/>
+      <c r="Q9" s="207"/>
+      <c r="R9" s="208"/>
+      <c r="S9" s="208"/>
+      <c r="T9" s="208"/>
+      <c r="U9" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="V9" s="178"/>
-      <c r="W9" s="178"/>
-      <c r="X9" s="178"/>
-      <c r="Y9" s="179"/>
-      <c r="Z9" s="195"/>
-      <c r="AA9" s="196"/>
-      <c r="AB9" s="196"/>
-      <c r="AC9" s="196"/>
-      <c r="AD9" s="214" t="s">
+      <c r="V9" s="188"/>
+      <c r="W9" s="188"/>
+      <c r="X9" s="188"/>
+      <c r="Y9" s="189"/>
+      <c r="Z9" s="207"/>
+      <c r="AA9" s="208"/>
+      <c r="AB9" s="208"/>
+      <c r="AC9" s="208"/>
+      <c r="AD9" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="AE9" s="215"/>
-      <c r="AF9" s="216"/>
-      <c r="AG9" s="183" t="s">
+      <c r="AE9" s="150"/>
+      <c r="AF9" s="151"/>
+      <c r="AG9" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="AH9" s="184"/>
-      <c r="AI9" s="185"/>
+      <c r="AH9" s="194"/>
+      <c r="AI9" s="195"/>
     </row>
-    <row r="10" spans="1:38" s="9" customFormat="1" ht="34.9" customHeight="1" thickBot="1">
-      <c r="A10" s="138" t="s">
+    <row r="10" spans="1:38" s="9" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="140"/>
+      <c r="B10" s="175"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="176"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="228" t="s">
+      <c r="L10" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="229"/>
-      <c r="N10" s="229"/>
-      <c r="O10" s="229"/>
-      <c r="P10" s="230"/>
-      <c r="Q10" s="197" t="s">
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="134"/>
+      <c r="Q10" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="198"/>
-      <c r="S10" s="198"/>
-      <c r="T10" s="198"/>
-      <c r="U10" s="180" t="s">
+      <c r="R10" s="210"/>
+      <c r="S10" s="210"/>
+      <c r="T10" s="210"/>
+      <c r="U10" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="V10" s="181"/>
-      <c r="W10" s="181"/>
-      <c r="X10" s="181"/>
-      <c r="Y10" s="182"/>
-      <c r="Z10" s="238">
+      <c r="V10" s="191"/>
+      <c r="W10" s="191"/>
+      <c r="X10" s="191"/>
+      <c r="Y10" s="192"/>
+      <c r="Z10" s="137">
         <v>25</v>
       </c>
-      <c r="AA10" s="239"/>
-      <c r="AB10" s="239"/>
-      <c r="AC10" s="240"/>
-      <c r="AD10" s="211"/>
-      <c r="AE10" s="212"/>
-      <c r="AF10" s="213"/>
-      <c r="AG10" s="186"/>
-      <c r="AH10" s="187"/>
-      <c r="AI10" s="188"/>
+      <c r="AA10" s="138"/>
+      <c r="AB10" s="138"/>
+      <c r="AC10" s="139"/>
+      <c r="AD10" s="146"/>
+      <c r="AE10" s="147"/>
+      <c r="AF10" s="148"/>
+      <c r="AG10" s="196"/>
+      <c r="AH10" s="197"/>
+      <c r="AI10" s="198"/>
     </row>
-    <row r="11" spans="1:38" s="9" customFormat="1" ht="34.9" customHeight="1" thickBot="1">
-      <c r="A11" s="138" t="s">
+    <row r="11" spans="1:38" s="9" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="139"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="140"/>
+      <c r="B11" s="175"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="176"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -4693,99 +4750,99 @@
       <c r="AE11" s="11"/>
       <c r="AF11" s="12"/>
     </row>
-    <row r="12" spans="1:38" s="9" customFormat="1" ht="34.9" customHeight="1" thickBot="1">
-      <c r="A12" s="138" t="s">
+    <row r="12" spans="1:38" s="9" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="140"/>
+      <c r="B12" s="175"/>
+      <c r="C12" s="175"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="175"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="176"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="164" t="s">
+      <c r="L12" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="165"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="165"/>
-      <c r="Q12" s="165"/>
-      <c r="R12" s="165"/>
-      <c r="S12" s="165"/>
-      <c r="T12" s="165"/>
-      <c r="U12" s="166"/>
-      <c r="V12" s="168" t="s">
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="159"/>
+      <c r="P12" s="159"/>
+      <c r="Q12" s="159"/>
+      <c r="R12" s="159"/>
+      <c r="S12" s="159"/>
+      <c r="T12" s="159"/>
+      <c r="U12" s="177"/>
+      <c r="V12" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="W12" s="169"/>
-      <c r="X12" s="169"/>
-      <c r="Y12" s="169"/>
-      <c r="Z12" s="169"/>
-      <c r="AA12" s="169"/>
-      <c r="AB12" s="169"/>
-      <c r="AC12" s="170"/>
-      <c r="AD12" s="171" t="s">
+      <c r="W12" s="179"/>
+      <c r="X12" s="179"/>
+      <c r="Y12" s="179"/>
+      <c r="Z12" s="179"/>
+      <c r="AA12" s="179"/>
+      <c r="AB12" s="179"/>
+      <c r="AC12" s="180"/>
+      <c r="AD12" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="AE12" s="172"/>
-      <c r="AF12" s="172"/>
-      <c r="AG12" s="172"/>
-      <c r="AH12" s="173"/>
+      <c r="AE12" s="182"/>
+      <c r="AF12" s="182"/>
+      <c r="AG12" s="182"/>
+      <c r="AH12" s="183"/>
       <c r="AI12" s="22"/>
       <c r="AJ12" s="23"/>
       <c r="AK12" s="23"/>
     </row>
-    <row r="13" spans="1:38" s="9" customFormat="1" ht="34.9" customHeight="1" thickBot="1">
-      <c r="A13" s="141" t="s">
+    <row r="13" spans="1:38" s="9" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="142"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="143"/>
+      <c r="B13" s="226"/>
+      <c r="C13" s="226"/>
+      <c r="D13" s="226"/>
+      <c r="E13" s="226"/>
+      <c r="F13" s="226"/>
+      <c r="G13" s="226"/>
+      <c r="H13" s="226"/>
+      <c r="I13" s="226"/>
+      <c r="J13" s="227"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="154" t="s">
+      <c r="L13" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="155"/>
-      <c r="N13" s="155"/>
-      <c r="O13" s="155"/>
-      <c r="P13" s="155"/>
-      <c r="Q13" s="155"/>
-      <c r="R13" s="156"/>
-      <c r="S13" s="157">
+      <c r="M13" s="215"/>
+      <c r="N13" s="215"/>
+      <c r="O13" s="215"/>
+      <c r="P13" s="215"/>
+      <c r="Q13" s="215"/>
+      <c r="R13" s="216"/>
+      <c r="S13" s="217">
         <v>800</v>
       </c>
-      <c r="T13" s="158"/>
-      <c r="U13" s="159"/>
-      <c r="V13" s="147" t="s">
+      <c r="T13" s="203"/>
+      <c r="U13" s="204"/>
+      <c r="V13" s="231" t="s">
         <v>22</v>
       </c>
-      <c r="W13" s="148"/>
-      <c r="X13" s="148"/>
-      <c r="Y13" s="148"/>
-      <c r="Z13" s="148"/>
-      <c r="AA13" s="148"/>
-      <c r="AB13" s="148"/>
+      <c r="W13" s="232"/>
+      <c r="X13" s="232"/>
+      <c r="Y13" s="232"/>
+      <c r="Z13" s="232"/>
+      <c r="AA13" s="232"/>
+      <c r="AB13" s="232"/>
       <c r="AC13" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="AD13" s="151" t="s">
+      <c r="AD13" s="211" t="s">
         <v>24</v>
       </c>
-      <c r="AE13" s="152"/>
-      <c r="AF13" s="152"/>
-      <c r="AG13" s="153"/>
+      <c r="AE13" s="212"/>
+      <c r="AF13" s="212"/>
+      <c r="AG13" s="213"/>
       <c r="AH13" s="25" t="s">
         <v>23</v>
       </c>
@@ -4793,52 +4850,52 @@
       <c r="AJ13" s="14"/>
       <c r="AK13" s="14"/>
     </row>
-    <row r="14" spans="1:38" s="9" customFormat="1" ht="34.9" customHeight="1" thickBot="1">
-      <c r="A14" s="164" t="s">
+    <row r="14" spans="1:38" s="9" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="165"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="167"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="160"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="225" t="s">
+      <c r="L14" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="226"/>
-      <c r="N14" s="226"/>
-      <c r="O14" s="226"/>
-      <c r="P14" s="226"/>
-      <c r="Q14" s="226"/>
-      <c r="R14" s="227"/>
-      <c r="S14" s="231">
+      <c r="M14" s="130"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="130"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="131"/>
+      <c r="S14" s="170">
         <v>25</v>
       </c>
-      <c r="T14" s="232"/>
-      <c r="U14" s="233"/>
-      <c r="V14" s="138" t="s">
+      <c r="T14" s="171"/>
+      <c r="U14" s="172"/>
+      <c r="V14" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="W14" s="139"/>
-      <c r="X14" s="139"/>
-      <c r="Y14" s="139"/>
-      <c r="Z14" s="139"/>
-      <c r="AA14" s="139"/>
-      <c r="AB14" s="139"/>
+      <c r="W14" s="175"/>
+      <c r="X14" s="175"/>
+      <c r="Y14" s="175"/>
+      <c r="Z14" s="175"/>
+      <c r="AA14" s="175"/>
+      <c r="AB14" s="175"/>
       <c r="AC14" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AD14" s="202" t="s">
+      <c r="AD14" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="AE14" s="203"/>
-      <c r="AF14" s="203"/>
-      <c r="AG14" s="224"/>
+      <c r="AE14" s="168"/>
+      <c r="AF14" s="168"/>
+      <c r="AG14" s="169"/>
       <c r="AH14" s="26" t="s">
         <v>23</v>
       </c>
@@ -4846,51 +4903,51 @@
       <c r="AJ14" s="14"/>
       <c r="AK14" s="14"/>
     </row>
-    <row r="15" spans="1:38" s="9" customFormat="1" ht="34.9" customHeight="1">
-      <c r="A15" s="199" t="s">
+    <row r="15" spans="1:38" s="9" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="200"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="201"/>
-      <c r="L15" s="225" t="s">
+      <c r="B15" s="162"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="163"/>
+      <c r="L15" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="226"/>
-      <c r="N15" s="226"/>
-      <c r="O15" s="226"/>
-      <c r="P15" s="226"/>
-      <c r="Q15" s="226"/>
-      <c r="R15" s="227"/>
-      <c r="S15" s="231">
+      <c r="M15" s="130"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="131"/>
+      <c r="S15" s="170">
         <v>30</v>
       </c>
-      <c r="T15" s="232"/>
-      <c r="U15" s="233"/>
-      <c r="V15" s="138" t="s">
+      <c r="T15" s="171"/>
+      <c r="U15" s="172"/>
+      <c r="V15" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="W15" s="139"/>
-      <c r="X15" s="139"/>
-      <c r="Y15" s="139"/>
-      <c r="Z15" s="139"/>
-      <c r="AA15" s="139"/>
-      <c r="AB15" s="139"/>
+      <c r="W15" s="175"/>
+      <c r="X15" s="175"/>
+      <c r="Y15" s="175"/>
+      <c r="Z15" s="175"/>
+      <c r="AA15" s="175"/>
+      <c r="AB15" s="175"/>
       <c r="AC15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AD15" s="202" t="s">
+      <c r="AD15" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="AE15" s="203"/>
-      <c r="AF15" s="203"/>
-      <c r="AG15" s="224"/>
+      <c r="AE15" s="168"/>
+      <c r="AF15" s="168"/>
+      <c r="AG15" s="169"/>
       <c r="AH15" s="26" t="s">
         <v>23</v>
       </c>
@@ -4898,56 +4955,56 @@
       <c r="AJ15" s="14"/>
       <c r="AK15" s="14"/>
     </row>
-    <row r="16" spans="1:38" s="9" customFormat="1" ht="34.9" customHeight="1" thickBot="1">
-      <c r="A16" s="149" t="s">
+    <row r="16" spans="1:38" s="9" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="150"/>
-      <c r="C16" s="150"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="223"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="166"/>
       <c r="K16" s="13"/>
-      <c r="L16" s="228" t="s">
+      <c r="L16" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="229"/>
-      <c r="N16" s="229"/>
-      <c r="O16" s="229"/>
-      <c r="P16" s="229"/>
-      <c r="Q16" s="229"/>
-      <c r="R16" s="230"/>
-      <c r="S16" s="238">
+      <c r="M16" s="133"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="133"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="133"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="137">
         <v>40</v>
       </c>
-      <c r="T16" s="239"/>
-      <c r="U16" s="240"/>
-      <c r="V16" s="149" t="s">
+      <c r="T16" s="138"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="W16" s="150"/>
-      <c r="X16" s="150"/>
-      <c r="Y16" s="150"/>
-      <c r="Z16" s="150"/>
-      <c r="AA16" s="150"/>
-      <c r="AB16" s="150"/>
+      <c r="W16" s="165"/>
+      <c r="X16" s="165"/>
+      <c r="Y16" s="165"/>
+      <c r="Z16" s="165"/>
+      <c r="AA16" s="165"/>
+      <c r="AB16" s="165"/>
       <c r="AC16" s="24"/>
-      <c r="AD16" s="220" t="s">
+      <c r="AD16" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="AE16" s="221"/>
-      <c r="AF16" s="221"/>
-      <c r="AG16" s="222"/>
+      <c r="AE16" s="156"/>
+      <c r="AF16" s="156"/>
+      <c r="AG16" s="157"/>
       <c r="AH16" s="24"/>
       <c r="AI16" s="10"/>
       <c r="AJ16" s="14"/>
       <c r="AK16" s="14"/>
     </row>
-    <row r="17" spans="1:38" ht="21" customHeight="1" thickBot="1">
+    <row r="17" spans="1:38" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L17" s="15"/>
       <c r="M17" s="16"/>
       <c r="N17" s="10"/>
@@ -4966,7 +5023,7 @@
       <c r="AA17" s="19"/>
       <c r="AE17" s="18"/>
     </row>
-    <row r="18" spans="1:38" ht="27" customHeight="1">
+    <row r="18" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>37</v>
       </c>
@@ -4974,20 +5031,20 @@
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="160">
+      <c r="F18" s="218">
         <v>7</v>
       </c>
-      <c r="G18" s="272"/>
+      <c r="G18" s="219"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="75" t="s">
         <v>38</v>
       </c>
       <c r="K18" s="10"/>
-      <c r="L18" s="160">
+      <c r="L18" s="218">
         <v>2022</v>
       </c>
-      <c r="M18" s="161"/>
+      <c r="M18" s="222"/>
       <c r="N18" s="76"/>
       <c r="O18" s="13"/>
       <c r="P18" s="15" t="s">
@@ -5010,20 +5067,20 @@
       <c r="AH18" s="18"/>
       <c r="AJ18" s="18"/>
     </row>
-    <row r="19" spans="1:38" ht="27" customHeight="1" thickBot="1">
+    <row r="19" spans="1:38" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="15"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="273"/>
-      <c r="G19" s="274"/>
+      <c r="F19" s="220"/>
+      <c r="G19" s="221"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="75"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="162"/>
-      <c r="M19" s="163"/>
+      <c r="L19" s="223"/>
+      <c r="M19" s="224"/>
       <c r="N19" s="76"/>
       <c r="O19" s="13"/>
       <c r="P19" s="10"/>
@@ -5044,7 +5101,7 @@
       <c r="AH19" s="18"/>
       <c r="AJ19" s="18"/>
     </row>
-    <row r="20" spans="1:38" ht="21" customHeight="1" thickBot="1">
+    <row r="20" spans="1:38" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="P20" s="65" t="s">
         <v>40</v>
       </c>
@@ -5086,9 +5143,9 @@
       <c r="AJ20" s="15"/>
       <c r="AK20" s="10"/>
     </row>
-    <row r="21" spans="1:38" ht="21" customHeight="1" thickBot="1"/>
-    <row r="22" spans="1:38" s="27" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A22" s="144" t="s">
+    <row r="21" spans="1:38" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="1:38" s="27" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="228" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="97" t="s">
@@ -5099,10 +5156,10 @@
       <c r="E22" s="98"/>
       <c r="F22" s="98"/>
       <c r="G22" s="99"/>
-      <c r="H22" s="132" t="s">
+      <c r="H22" s="241" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="135" t="s">
+      <c r="I22" s="244" t="s">
         <v>51</v>
       </c>
       <c r="J22" s="97" t="s">
@@ -5134,21 +5191,21 @@
       <c r="AD22" s="98"/>
       <c r="AE22" s="98"/>
       <c r="AF22" s="99"/>
-      <c r="AG22" s="208" t="s">
+      <c r="AG22" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="AH22" s="209"/>
-      <c r="AI22" s="209"/>
-      <c r="AJ22" s="210"/>
-      <c r="AK22" s="129" t="s">
+      <c r="AH22" s="144"/>
+      <c r="AI22" s="144"/>
+      <c r="AJ22" s="145"/>
+      <c r="AK22" s="238" t="s">
         <v>56</v>
       </c>
-      <c r="AL22" s="131" t="s">
+      <c r="AL22" s="240" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:38" s="35" customFormat="1" ht="180" customHeight="1" thickBot="1">
-      <c r="A23" s="145"/>
+    <row r="23" spans="1:38" s="35" customFormat="1" ht="180" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="229"/>
       <c r="B23" s="28" t="s">
         <v>58</v>
       </c>
@@ -5167,15 +5224,15 @@
       <c r="G23" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="133"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="234" t="s">
+      <c r="H23" s="242"/>
+      <c r="I23" s="245"/>
+      <c r="J23" s="233" t="s">
         <v>62</v>
       </c>
-      <c r="K23" s="244" t="s">
+      <c r="K23" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="L23" s="236" t="s">
+      <c r="L23" s="235" t="s">
         <v>64</v>
       </c>
       <c r="M23" s="32" t="s">
@@ -5250,11 +5307,11 @@
       <c r="AJ23" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="AK23" s="130"/>
-      <c r="AL23" s="131"/>
+      <c r="AK23" s="239"/>
+      <c r="AL23" s="240"/>
     </row>
-    <row r="24" spans="1:38" s="35" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A24" s="146"/>
+    <row r="24" spans="1:38" s="35" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="230"/>
       <c r="B24" s="36" t="s">
         <v>80</v>
       </c>
@@ -5265,11 +5322,11 @@
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="39"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="137"/>
-      <c r="J24" s="235"/>
-      <c r="K24" s="245"/>
-      <c r="L24" s="237"/>
+      <c r="H24" s="243"/>
+      <c r="I24" s="246"/>
+      <c r="J24" s="234"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="236"/>
       <c r="M24" s="40" t="s">
         <v>82</v>
       </c>
@@ -5345,9 +5402,9 @@
       <c r="AK24" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="AL24" s="131"/>
+      <c r="AL24" s="240"/>
     </row>
-    <row r="25" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1" thickTop="1">
+    <row r="25" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A25" s="77">
         <v>1</v>
       </c>
@@ -5436,7 +5493,7 @@
       </c>
       <c r="AL25" s="78"/>
     </row>
-    <row r="26" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1">
+    <row r="26" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="77">
         <v>2</v>
       </c>
@@ -5529,7 +5586,7 @@
       </c>
       <c r="AL26" s="79"/>
     </row>
-    <row r="27" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1">
+    <row r="27" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="77">
         <v>3</v>
       </c>
@@ -5610,7 +5667,7 @@
       </c>
       <c r="AL27" s="79"/>
     </row>
-    <row r="28" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1">
+    <row r="28" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="77">
         <v>4</v>
       </c>
@@ -5703,7 +5760,7 @@
       </c>
       <c r="AL28" s="79"/>
     </row>
-    <row r="29" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1">
+    <row r="29" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="77">
         <v>5</v>
       </c>
@@ -5804,7 +5861,7 @@
       </c>
       <c r="AL29" s="79"/>
     </row>
-    <row r="30" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1">
+    <row r="30" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="77">
         <v>6</v>
       </c>
@@ -5897,7 +5954,7 @@
       </c>
       <c r="AL30" s="79"/>
     </row>
-    <row r="31" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1">
+    <row r="31" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="77">
         <v>7</v>
       </c>
@@ -5990,7 +6047,7 @@
       </c>
       <c r="AL31" s="79"/>
     </row>
-    <row r="32" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1">
+    <row r="32" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="77">
         <v>8</v>
       </c>
@@ -6087,7 +6144,7 @@
       </c>
       <c r="AL32" s="79"/>
     </row>
-    <row r="33" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1">
+    <row r="33" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="77">
         <v>9</v>
       </c>
@@ -6180,7 +6237,7 @@
       </c>
       <c r="AL33" s="79"/>
     </row>
-    <row r="34" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1">
+    <row r="34" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="77">
         <v>10</v>
       </c>
@@ -6273,7 +6330,7 @@
       </c>
       <c r="AL34" s="79"/>
     </row>
-    <row r="35" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1">
+    <row r="35" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="77">
         <v>11</v>
       </c>
@@ -6370,7 +6427,7 @@
       </c>
       <c r="AL35" s="79"/>
     </row>
-    <row r="36" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1">
+    <row r="36" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="77">
         <v>12</v>
       </c>
@@ -6463,7 +6520,7 @@
       </c>
       <c r="AL36" s="79"/>
     </row>
-    <row r="37" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1">
+    <row r="37" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="77">
         <v>13</v>
       </c>
@@ -6564,7 +6621,7 @@
       </c>
       <c r="AL37" s="79"/>
     </row>
-    <row r="38" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1">
+    <row r="38" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="77">
         <v>14</v>
       </c>
@@ -6649,7 +6706,7 @@
       </c>
       <c r="AL38" s="79"/>
     </row>
-    <row r="39" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1">
+    <row r="39" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="77">
         <v>15</v>
       </c>
@@ -6734,7 +6791,7 @@
       </c>
       <c r="AL39" s="79"/>
     </row>
-    <row r="40" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1">
+    <row r="40" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="77">
         <v>16</v>
       </c>
@@ -6827,7 +6884,7 @@
       </c>
       <c r="AL40" s="79"/>
     </row>
-    <row r="41" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1">
+    <row r="41" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="77">
         <v>17</v>
       </c>
@@ -6924,7 +6981,7 @@
       </c>
       <c r="AL41" s="79"/>
     </row>
-    <row r="42" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1">
+    <row r="42" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="77">
         <v>18</v>
       </c>
@@ -7013,7 +7070,7 @@
       </c>
       <c r="AL42" s="79"/>
     </row>
-    <row r="43" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1">
+    <row r="43" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="77">
         <v>19</v>
       </c>
@@ -7102,7 +7159,7 @@
       </c>
       <c r="AL43" s="79"/>
     </row>
-    <row r="44" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1">
+    <row r="44" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="77">
         <v>20</v>
       </c>
@@ -7195,7 +7252,7 @@
       </c>
       <c r="AL44" s="79"/>
     </row>
-    <row r="45" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1">
+    <row r="45" spans="1:38" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="77">
         <v>21</v>
       </c>
@@ -7217,12 +7274,12 @@
       <c r="G45" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="H45" s="126" t="s">
+      <c r="H45" s="237" t="s">
         <v>88</v>
       </c>
-      <c r="I45" s="127"/>
-      <c r="J45" s="127"/>
-      <c r="K45" s="128"/>
+      <c r="I45" s="277"/>
+      <c r="J45" s="277"/>
+      <c r="K45" s="278"/>
       <c r="L45" s="120"/>
       <c r="M45" s="115"/>
       <c r="N45" s="122"/>
@@ -7254,7 +7311,7 @@
       </c>
       <c r="AL45" s="79"/>
     </row>
-    <row r="46" spans="1:38" s="45" customFormat="1" ht="30" customHeight="1">
+    <row r="46" spans="1:38" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="77">
         <v>22</v>
       </c>
@@ -7351,7 +7408,7 @@
       </c>
       <c r="AL46" s="62"/>
     </row>
-    <row r="47" spans="1:38" s="45" customFormat="1" ht="30" customHeight="1">
+    <row r="47" spans="1:38" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="77">
         <v>23</v>
       </c>
@@ -7448,7 +7505,7 @@
       </c>
       <c r="AL47" s="62"/>
     </row>
-    <row r="48" spans="1:38" s="45" customFormat="1" ht="30" customHeight="1">
+    <row r="48" spans="1:38" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="77">
         <v>24</v>
       </c>
@@ -7541,7 +7598,7 @@
       </c>
       <c r="AL48" s="62"/>
     </row>
-    <row r="49" spans="1:38" s="45" customFormat="1" ht="30" customHeight="1">
+    <row r="49" spans="1:38" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="77">
         <v>25</v>
       </c>
@@ -7634,7 +7691,7 @@
       </c>
       <c r="AL49" s="62"/>
     </row>
-    <row r="50" spans="1:38" s="45" customFormat="1" ht="30" customHeight="1">
+    <row r="50" spans="1:38" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="77">
         <v>26</v>
       </c>
@@ -7727,7 +7784,7 @@
       </c>
       <c r="AL50" s="62"/>
     </row>
-    <row r="51" spans="1:38" s="45" customFormat="1" ht="30" customHeight="1">
+    <row r="51" spans="1:38" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="77">
         <v>27</v>
       </c>
@@ -7816,7 +7873,7 @@
       </c>
       <c r="AL51" s="62"/>
     </row>
-    <row r="52" spans="1:38" s="45" customFormat="1" ht="30" customHeight="1">
+    <row r="52" spans="1:38" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="77">
         <v>28</v>
       </c>
@@ -7909,7 +7966,7 @@
       </c>
       <c r="AL52" s="62"/>
     </row>
-    <row r="53" spans="1:38" s="45" customFormat="1" ht="30" customHeight="1">
+    <row r="53" spans="1:38" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="77">
         <v>29</v>
       </c>
@@ -7998,7 +8055,7 @@
       </c>
       <c r="AL53" s="62"/>
     </row>
-    <row r="54" spans="1:38" s="45" customFormat="1" ht="30" customHeight="1">
+    <row r="54" spans="1:38" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="77">
         <v>30</v>
       </c>
@@ -8083,7 +8140,7 @@
       </c>
       <c r="AL54" s="62"/>
     </row>
-    <row r="55" spans="1:38" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="55" spans="1:38" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="77">
         <v>31</v>
       </c>
@@ -8105,12 +8162,12 @@
       <c r="G55" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="H55" s="126" t="s">
+      <c r="H55" s="274" t="s">
         <v>88</v>
       </c>
-      <c r="I55" s="127"/>
-      <c r="J55" s="127"/>
-      <c r="K55" s="128"/>
+      <c r="I55" s="275"/>
+      <c r="J55" s="275"/>
+      <c r="K55" s="276"/>
       <c r="L55" s="120"/>
       <c r="M55" s="115"/>
       <c r="N55" s="122"/>
@@ -8142,20 +8199,20 @@
       </c>
       <c r="AL55" s="62"/>
     </row>
-    <row r="56" spans="1:38" s="9" customFormat="1" ht="49.9" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A56" s="205" t="s">
+    <row r="56" spans="1:38" s="9" customFormat="1" ht="49.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="206"/>
-      <c r="C56" s="206"/>
-      <c r="D56" s="206"/>
-      <c r="E56" s="206"/>
-      <c r="F56" s="206"/>
-      <c r="G56" s="206"/>
-      <c r="H56" s="206"/>
-      <c r="I56" s="206"/>
-      <c r="J56" s="206"/>
-      <c r="K56" s="207"/>
+      <c r="B56" s="141"/>
+      <c r="C56" s="141"/>
+      <c r="D56" s="141"/>
+      <c r="E56" s="141"/>
+      <c r="F56" s="141"/>
+      <c r="G56" s="141"/>
+      <c r="H56" s="141"/>
+      <c r="I56" s="141"/>
+      <c r="J56" s="141"/>
+      <c r="K56" s="142"/>
       <c r="L56" s="94">
         <f>SUM(L25:L55)</f>
         <v>0</v>
@@ -8262,20 +8319,56 @@
       </c>
       <c r="AL56" s="55"/>
     </row>
-    <row r="57" spans="1:38" s="9" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="58" spans="1:38" ht="30" customHeight="1">
+    <row r="57" spans="1:38" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="49" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:38" ht="19.5" customHeight="1"/>
+    <row r="59" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="AK22:AK23"/>
+    <mergeCell ref="AL22:AL24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="L7:AC7"/>
+    <mergeCell ref="AD7:AI7"/>
+    <mergeCell ref="L12:U12"/>
+    <mergeCell ref="V12:AC12"/>
+    <mergeCell ref="AD12:AH12"/>
+    <mergeCell ref="U8:Y8"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="AG9:AI10"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
     <mergeCell ref="A56:K56"/>
     <mergeCell ref="AG22:AJ22"/>
     <mergeCell ref="AD10:AF10"/>
@@ -8292,47 +8385,11 @@
     <mergeCell ref="AD14:AG14"/>
     <mergeCell ref="S14:U14"/>
     <mergeCell ref="S15:U15"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="L7:AC7"/>
-    <mergeCell ref="AD7:AI7"/>
-    <mergeCell ref="L12:U12"/>
-    <mergeCell ref="V12:AC12"/>
-    <mergeCell ref="AD12:AH12"/>
-    <mergeCell ref="U8:Y8"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="AG9:AI10"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="V14:AB14"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="AK22:AK23"/>
-    <mergeCell ref="AL22:AL24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="S16:U16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8354,7 +8411,7 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
     <col min="2" max="39" width="9.85546875" style="1" customWidth="1"/>
@@ -8362,7 +8419,7 @@
     <col min="41" max="16384" width="6.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:40" ht="46.5">
+    <row r="2" spans="1:40" ht="46.5" x14ac:dyDescent="0.7">
       <c r="F2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="46"/>
@@ -8391,11 +8448,11 @@
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
-      <c r="AK2" s="257"/>
-      <c r="AL2" s="275"/>
+      <c r="AK2" s="263"/>
+      <c r="AL2" s="264"/>
       <c r="AM2" s="51"/>
     </row>
-    <row r="3" spans="1:40" ht="46.5">
+    <row r="3" spans="1:40" ht="46.5" x14ac:dyDescent="0.7">
       <c r="F3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="46"/>
@@ -8430,7 +8487,7 @@
       <c r="AL3"/>
       <c r="AM3" s="7"/>
     </row>
-    <row r="4" spans="1:40" ht="46.5">
+    <row r="4" spans="1:40" ht="46.5" x14ac:dyDescent="0.7">
       <c r="F4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="46"/>
@@ -8465,7 +8522,7 @@
       <c r="AL4"/>
       <c r="AM4" s="7"/>
     </row>
-    <row r="5" spans="1:40" ht="26.45" customHeight="1">
+    <row r="5" spans="1:40" ht="26.45" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
@@ -8501,7 +8558,7 @@
       <c r="AL5"/>
       <c r="AM5" s="7"/>
     </row>
-    <row r="6" spans="1:40" ht="26.45" customHeight="1">
+    <row r="6" spans="1:40" ht="26.45" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
       <c r="H6" s="2"/>
@@ -8537,7 +8594,7 @@
       <c r="AL6"/>
       <c r="AM6" s="7"/>
     </row>
-    <row r="7" spans="1:40" ht="26.45" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
@@ -8573,24 +8630,24 @@
       <c r="AL7"/>
       <c r="AM7" s="7"/>
     </row>
-    <row r="8" spans="1:40" ht="27" customHeight="1">
+    <row r="8" spans="1:40" ht="27" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="F8" s="160">
+      <c r="F8" s="218">
         <v>7</v>
       </c>
-      <c r="G8" s="260"/>
+      <c r="G8" s="268"/>
       <c r="J8" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="L8" s="160">
+      <c r="L8" s="218">
         <v>2022</v>
       </c>
-      <c r="M8" s="260"/>
+      <c r="M8" s="268"/>
       <c r="N8" s="76"/>
       <c r="O8" s="13"/>
       <c r="P8" s="63"/>
@@ -8618,20 +8675,20 @@
       <c r="AL8"/>
       <c r="AM8" s="7"/>
     </row>
-    <row r="9" spans="1:40" ht="27" customHeight="1" thickBot="1">
+    <row r="9" spans="1:40" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A9" s="15"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="261"/>
-      <c r="G9" s="262"/>
+      <c r="F9" s="269"/>
+      <c r="G9" s="270"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="261"/>
-      <c r="M9" s="262"/>
+      <c r="L9" s="269"/>
+      <c r="M9" s="270"/>
       <c r="N9" s="76"/>
       <c r="O9" s="13"/>
       <c r="P9" s="15"/>
@@ -8659,245 +8716,245 @@
       <c r="AL9"/>
       <c r="AM9" s="7"/>
     </row>
-    <row r="10" spans="1:40" ht="19.5" customHeight="1" thickBot="1"/>
-    <row r="11" spans="1:40" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A11" s="264" t="s">
+    <row r="10" spans="1:40" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="248" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="251" t="s">
+      <c r="B11" s="271" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="252"/>
-      <c r="D11" s="252"/>
-      <c r="E11" s="252"/>
-      <c r="F11" s="252"/>
-      <c r="G11" s="252"/>
-      <c r="H11" s="252"/>
-      <c r="I11" s="252"/>
-      <c r="J11" s="252"/>
-      <c r="K11" s="252"/>
-      <c r="L11" s="252"/>
-      <c r="M11" s="252"/>
-      <c r="N11" s="252"/>
-      <c r="O11" s="252"/>
-      <c r="P11" s="252"/>
-      <c r="Q11" s="252"/>
-      <c r="R11" s="252"/>
-      <c r="S11" s="252"/>
-      <c r="T11" s="252"/>
-      <c r="U11" s="252"/>
-      <c r="V11" s="252"/>
-      <c r="W11" s="252"/>
-      <c r="X11" s="252"/>
-      <c r="Y11" s="252"/>
-      <c r="Z11" s="252"/>
-      <c r="AA11" s="252"/>
-      <c r="AB11" s="252"/>
-      <c r="AC11" s="252"/>
-      <c r="AD11" s="252"/>
-      <c r="AE11" s="252"/>
-      <c r="AF11" s="252"/>
-      <c r="AG11" s="253"/>
-      <c r="AH11" s="258" t="s">
+      <c r="C11" s="272"/>
+      <c r="D11" s="272"/>
+      <c r="E11" s="272"/>
+      <c r="F11" s="272"/>
+      <c r="G11" s="272"/>
+      <c r="H11" s="272"/>
+      <c r="I11" s="272"/>
+      <c r="J11" s="272"/>
+      <c r="K11" s="272"/>
+      <c r="L11" s="272"/>
+      <c r="M11" s="272"/>
+      <c r="N11" s="272"/>
+      <c r="O11" s="272"/>
+      <c r="P11" s="272"/>
+      <c r="Q11" s="272"/>
+      <c r="R11" s="272"/>
+      <c r="S11" s="272"/>
+      <c r="T11" s="272"/>
+      <c r="U11" s="272"/>
+      <c r="V11" s="272"/>
+      <c r="W11" s="272"/>
+      <c r="X11" s="272"/>
+      <c r="Y11" s="272"/>
+      <c r="Z11" s="272"/>
+      <c r="AA11" s="272"/>
+      <c r="AB11" s="272"/>
+      <c r="AC11" s="272"/>
+      <c r="AD11" s="272"/>
+      <c r="AE11" s="272"/>
+      <c r="AF11" s="272"/>
+      <c r="AG11" s="273"/>
+      <c r="AH11" s="265" t="s">
         <v>95</v>
       </c>
-      <c r="AI11" s="259"/>
-      <c r="AJ11" s="259"/>
-      <c r="AK11" s="259"/>
-      <c r="AL11" s="259"/>
-      <c r="AM11" s="259"/>
-      <c r="AN11" s="131" t="s">
+      <c r="AI11" s="266"/>
+      <c r="AJ11" s="266"/>
+      <c r="AK11" s="266"/>
+      <c r="AL11" s="266"/>
+      <c r="AM11" s="266"/>
+      <c r="AN11" s="240" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="20" customFormat="1" ht="34.9" customHeight="1" thickBot="1">
-      <c r="A12" s="265"/>
-      <c r="B12" s="254" t="s">
+    <row r="12" spans="1:40" s="20" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="249"/>
+      <c r="B12" s="257" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="270"/>
-      <c r="D12" s="270"/>
-      <c r="E12" s="271"/>
-      <c r="F12" s="254" t="s">
+      <c r="C12" s="261"/>
+      <c r="D12" s="261"/>
+      <c r="E12" s="262"/>
+      <c r="F12" s="257" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="255"/>
-      <c r="H12" s="255"/>
-      <c r="I12" s="256"/>
-      <c r="J12" s="254" t="s">
+      <c r="G12" s="267"/>
+      <c r="H12" s="267"/>
+      <c r="I12" s="258"/>
+      <c r="J12" s="257" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="255"/>
-      <c r="L12" s="255"/>
-      <c r="M12" s="256"/>
-      <c r="N12" s="254" t="s">
+      <c r="K12" s="267"/>
+      <c r="L12" s="267"/>
+      <c r="M12" s="258"/>
+      <c r="N12" s="257" t="s">
         <v>100</v>
       </c>
-      <c r="O12" s="255"/>
-      <c r="P12" s="255"/>
-      <c r="Q12" s="256"/>
-      <c r="R12" s="254" t="s">
+      <c r="O12" s="267"/>
+      <c r="P12" s="267"/>
+      <c r="Q12" s="258"/>
+      <c r="R12" s="257" t="s">
         <v>101</v>
       </c>
-      <c r="S12" s="255"/>
-      <c r="T12" s="255"/>
-      <c r="U12" s="256"/>
-      <c r="V12" s="254" t="s">
+      <c r="S12" s="267"/>
+      <c r="T12" s="267"/>
+      <c r="U12" s="258"/>
+      <c r="V12" s="257" t="s">
         <v>102</v>
       </c>
-      <c r="W12" s="255"/>
-      <c r="X12" s="255"/>
-      <c r="Y12" s="256"/>
-      <c r="Z12" s="254" t="s">
+      <c r="W12" s="267"/>
+      <c r="X12" s="267"/>
+      <c r="Y12" s="258"/>
+      <c r="Z12" s="257" t="s">
         <v>103</v>
       </c>
-      <c r="AA12" s="255"/>
-      <c r="AB12" s="255"/>
-      <c r="AC12" s="256"/>
-      <c r="AD12" s="254" t="s">
+      <c r="AA12" s="267"/>
+      <c r="AB12" s="267"/>
+      <c r="AC12" s="258"/>
+      <c r="AD12" s="257" t="s">
         <v>104</v>
       </c>
-      <c r="AE12" s="256"/>
-      <c r="AF12" s="254" t="s">
+      <c r="AE12" s="258"/>
+      <c r="AF12" s="257" t="s">
         <v>105</v>
       </c>
-      <c r="AG12" s="256"/>
-      <c r="AH12" s="254" t="s">
+      <c r="AG12" s="258"/>
+      <c r="AH12" s="257" t="s">
         <v>106</v>
       </c>
-      <c r="AI12" s="256"/>
-      <c r="AJ12" s="254" t="s">
+      <c r="AI12" s="258"/>
+      <c r="AJ12" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="AK12" s="256"/>
-      <c r="AL12" s="254" t="s">
+      <c r="AK12" s="258"/>
+      <c r="AL12" s="257" t="s">
         <v>108</v>
       </c>
-      <c r="AM12" s="256"/>
-      <c r="AN12" s="263"/>
+      <c r="AM12" s="258"/>
+      <c r="AN12" s="247"/>
     </row>
-    <row r="13" spans="1:40" ht="30" customHeight="1" thickBot="1">
-      <c r="A13" s="265"/>
-      <c r="B13" s="246" t="s">
+    <row r="13" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="249"/>
+      <c r="B13" s="259" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="247"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="248"/>
-      <c r="F13" s="246" t="s">
+      <c r="C13" s="260"/>
+      <c r="D13" s="260"/>
+      <c r="E13" s="254"/>
+      <c r="F13" s="259" t="s">
         <v>109</v>
       </c>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="248"/>
-      <c r="J13" s="246" t="s">
+      <c r="G13" s="260"/>
+      <c r="H13" s="260"/>
+      <c r="I13" s="254"/>
+      <c r="J13" s="259" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="247"/>
-      <c r="L13" s="247"/>
-      <c r="M13" s="248"/>
-      <c r="N13" s="246" t="s">
+      <c r="K13" s="260"/>
+      <c r="L13" s="260"/>
+      <c r="M13" s="254"/>
+      <c r="N13" s="259" t="s">
         <v>109</v>
       </c>
-      <c r="O13" s="247"/>
-      <c r="P13" s="247"/>
-      <c r="Q13" s="248"/>
-      <c r="R13" s="246" t="s">
+      <c r="O13" s="260"/>
+      <c r="P13" s="260"/>
+      <c r="Q13" s="254"/>
+      <c r="R13" s="259" t="s">
         <v>109</v>
       </c>
-      <c r="S13" s="247"/>
-      <c r="T13" s="247"/>
-      <c r="U13" s="248"/>
-      <c r="V13" s="246" t="s">
+      <c r="S13" s="260"/>
+      <c r="T13" s="260"/>
+      <c r="U13" s="254"/>
+      <c r="V13" s="259" t="s">
         <v>109</v>
       </c>
-      <c r="W13" s="247"/>
-      <c r="X13" s="247"/>
-      <c r="Y13" s="248"/>
-      <c r="Z13" s="246" t="s">
+      <c r="W13" s="260"/>
+      <c r="X13" s="260"/>
+      <c r="Y13" s="254"/>
+      <c r="Z13" s="259" t="s">
         <v>109</v>
       </c>
-      <c r="AA13" s="247"/>
-      <c r="AB13" s="247"/>
-      <c r="AC13" s="248"/>
-      <c r="AD13" s="268"/>
-      <c r="AE13" s="269"/>
-      <c r="AF13" s="267"/>
-      <c r="AG13" s="248"/>
-      <c r="AH13" s="268"/>
-      <c r="AI13" s="269"/>
-      <c r="AJ13" s="268"/>
-      <c r="AK13" s="269"/>
-      <c r="AL13" s="268"/>
-      <c r="AM13" s="269"/>
-      <c r="AN13" s="263"/>
+      <c r="AA13" s="260"/>
+      <c r="AB13" s="260"/>
+      <c r="AC13" s="254"/>
+      <c r="AD13" s="255"/>
+      <c r="AE13" s="256"/>
+      <c r="AF13" s="253"/>
+      <c r="AG13" s="254"/>
+      <c r="AH13" s="255"/>
+      <c r="AI13" s="256"/>
+      <c r="AJ13" s="255"/>
+      <c r="AK13" s="256"/>
+      <c r="AL13" s="255"/>
+      <c r="AM13" s="256"/>
+      <c r="AN13" s="247"/>
     </row>
-    <row r="14" spans="1:40" ht="150" customHeight="1" thickBot="1">
-      <c r="A14" s="265"/>
-      <c r="B14" s="249" t="s">
+    <row r="14" spans="1:40" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="249"/>
+      <c r="B14" s="251" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="250"/>
+      <c r="C14" s="252"/>
       <c r="D14" s="56" t="s">
         <v>111</v>
       </c>
       <c r="E14" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="249" t="s">
+      <c r="F14" s="251" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="250"/>
+      <c r="G14" s="252"/>
       <c r="H14" s="56" t="s">
         <v>111</v>
       </c>
       <c r="I14" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="J14" s="249" t="s">
+      <c r="J14" s="251" t="s">
         <v>110</v>
       </c>
-      <c r="K14" s="250"/>
+      <c r="K14" s="252"/>
       <c r="L14" s="56" t="s">
         <v>111</v>
       </c>
       <c r="M14" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="249" t="s">
+      <c r="N14" s="251" t="s">
         <v>110</v>
       </c>
-      <c r="O14" s="250"/>
+      <c r="O14" s="252"/>
       <c r="P14" s="56" t="s">
         <v>111</v>
       </c>
       <c r="Q14" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="R14" s="249" t="s">
+      <c r="R14" s="251" t="s">
         <v>110</v>
       </c>
-      <c r="S14" s="250"/>
+      <c r="S14" s="252"/>
       <c r="T14" s="56" t="s">
         <v>111</v>
       </c>
       <c r="U14" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="V14" s="249" t="s">
+      <c r="V14" s="251" t="s">
         <v>110</v>
       </c>
-      <c r="W14" s="250"/>
+      <c r="W14" s="252"/>
       <c r="X14" s="56" t="s">
         <v>111</v>
       </c>
       <c r="Y14" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="Z14" s="249" t="s">
+      <c r="Z14" s="251" t="s">
         <v>110</v>
       </c>
-      <c r="AA14" s="250"/>
+      <c r="AA14" s="252"/>
       <c r="AB14" s="56" t="s">
         <v>111</v>
       </c>
@@ -8934,10 +8991,10 @@
       <c r="AM14" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="AN14" s="263"/>
+      <c r="AN14" s="247"/>
     </row>
-    <row r="15" spans="1:40" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A15" s="266"/>
+    <row r="15" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="250"/>
       <c r="B15" s="64" t="s">
         <v>113</v>
       </c>
@@ -9052,9 +9109,9 @@
       <c r="AM15" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="AN15" s="263"/>
+      <c r="AN15" s="247"/>
     </row>
-    <row r="16" spans="1:40" ht="30" customHeight="1">
+    <row r="16" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="88">
         <v>1</v>
       </c>
@@ -9098,7 +9155,7 @@
       <c r="AM16" s="92"/>
       <c r="AN16" s="78"/>
     </row>
-    <row r="17" spans="1:40" ht="30" customHeight="1">
+    <row r="17" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="89">
         <v>2</v>
       </c>
@@ -9142,7 +9199,7 @@
       <c r="AM17" s="82"/>
       <c r="AN17" s="79"/>
     </row>
-    <row r="18" spans="1:40" ht="30" customHeight="1">
+    <row r="18" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="89">
         <v>3</v>
       </c>
@@ -9186,7 +9243,7 @@
       <c r="AM18" s="82"/>
       <c r="AN18" s="79"/>
     </row>
-    <row r="19" spans="1:40" ht="30" customHeight="1">
+    <row r="19" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="89">
         <v>4</v>
       </c>
@@ -9234,7 +9291,7 @@
       <c r="AM19" s="82"/>
       <c r="AN19" s="79"/>
     </row>
-    <row r="20" spans="1:40" ht="30" customHeight="1">
+    <row r="20" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="89">
         <v>5</v>
       </c>
@@ -9282,7 +9339,7 @@
       <c r="AM20" s="82"/>
       <c r="AN20" s="79"/>
     </row>
-    <row r="21" spans="1:40" ht="30" customHeight="1">
+    <row r="21" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="89">
         <v>6</v>
       </c>
@@ -9330,7 +9387,7 @@
       <c r="AM21" s="82"/>
       <c r="AN21" s="79"/>
     </row>
-    <row r="22" spans="1:40" ht="30" customHeight="1">
+    <row r="22" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="89">
         <v>7</v>
       </c>
@@ -9378,7 +9435,7 @@
       <c r="AM22" s="82"/>
       <c r="AN22" s="79"/>
     </row>
-    <row r="23" spans="1:40" ht="30" customHeight="1">
+    <row r="23" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="89">
         <v>8</v>
       </c>
@@ -9422,7 +9479,7 @@
       <c r="AM23" s="82"/>
       <c r="AN23" s="79"/>
     </row>
-    <row r="24" spans="1:40" ht="30" customHeight="1">
+    <row r="24" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="89">
         <v>9</v>
       </c>
@@ -9470,7 +9527,7 @@
       <c r="AM24" s="82"/>
       <c r="AN24" s="79"/>
     </row>
-    <row r="25" spans="1:40" ht="30" customHeight="1">
+    <row r="25" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="89">
         <v>10</v>
       </c>
@@ -9518,7 +9575,7 @@
       <c r="AM25" s="82"/>
       <c r="AN25" s="79"/>
     </row>
-    <row r="26" spans="1:40" ht="30" customHeight="1">
+    <row r="26" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="89">
         <v>11</v>
       </c>
@@ -9562,7 +9619,7 @@
       <c r="AM26" s="82"/>
       <c r="AN26" s="79"/>
     </row>
-    <row r="27" spans="1:40" ht="30" customHeight="1">
+    <row r="27" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="89">
         <v>12</v>
       </c>
@@ -9606,7 +9663,7 @@
       <c r="AM27" s="82"/>
       <c r="AN27" s="79"/>
     </row>
-    <row r="28" spans="1:40" ht="30" customHeight="1">
+    <row r="28" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="89">
         <v>13</v>
       </c>
@@ -9650,7 +9707,7 @@
       <c r="AM28" s="82"/>
       <c r="AN28" s="79"/>
     </row>
-    <row r="29" spans="1:40" ht="30" customHeight="1">
+    <row r="29" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="89">
         <v>14</v>
       </c>
@@ -9694,7 +9751,7 @@
       <c r="AM29" s="82"/>
       <c r="AN29" s="79"/>
     </row>
-    <row r="30" spans="1:40" ht="30" customHeight="1">
+    <row r="30" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="89">
         <v>15</v>
       </c>
@@ -9742,7 +9799,7 @@
       <c r="AM30" s="82"/>
       <c r="AN30" s="79"/>
     </row>
-    <row r="31" spans="1:40" ht="30" customHeight="1">
+    <row r="31" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="89">
         <v>16</v>
       </c>
@@ -9790,7 +9847,7 @@
       <c r="AM31" s="82"/>
       <c r="AN31" s="79"/>
     </row>
-    <row r="32" spans="1:40" ht="30" customHeight="1">
+    <row r="32" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="89">
         <v>17</v>
       </c>
@@ -9834,7 +9891,7 @@
       <c r="AM32" s="82"/>
       <c r="AN32" s="79"/>
     </row>
-    <row r="33" spans="1:40" ht="30" customHeight="1">
+    <row r="33" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="89">
         <v>18</v>
       </c>
@@ -9878,7 +9935,7 @@
       <c r="AM33" s="82"/>
       <c r="AN33" s="79"/>
     </row>
-    <row r="34" spans="1:40" ht="30" customHeight="1">
+    <row r="34" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="89">
         <v>19</v>
       </c>
@@ -9926,7 +9983,7 @@
       <c r="AM34" s="82"/>
       <c r="AN34" s="79"/>
     </row>
-    <row r="35" spans="1:40" ht="30" customHeight="1">
+    <row r="35" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="89">
         <v>20</v>
       </c>
@@ -9970,7 +10027,7 @@
       <c r="AM35" s="82"/>
       <c r="AN35" s="79"/>
     </row>
-    <row r="36" spans="1:40" ht="30" customHeight="1">
+    <row r="36" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="89">
         <v>21</v>
       </c>
@@ -10014,7 +10071,7 @@
       <c r="AM36" s="82"/>
       <c r="AN36" s="79"/>
     </row>
-    <row r="37" spans="1:40" ht="30" customHeight="1">
+    <row r="37" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="89">
         <v>22</v>
       </c>
@@ -10058,7 +10115,7 @@
       <c r="AM37" s="82"/>
       <c r="AN37" s="62"/>
     </row>
-    <row r="38" spans="1:40" ht="30" customHeight="1">
+    <row r="38" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="89">
         <v>23</v>
       </c>
@@ -10106,7 +10163,7 @@
       <c r="AM38" s="82"/>
       <c r="AN38" s="62"/>
     </row>
-    <row r="39" spans="1:40" ht="30" customHeight="1">
+    <row r="39" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="89">
         <v>24</v>
       </c>
@@ -10154,7 +10211,7 @@
       <c r="AM39" s="82"/>
       <c r="AN39" s="62"/>
     </row>
-    <row r="40" spans="1:40" ht="30" customHeight="1">
+    <row r="40" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="89">
         <v>25</v>
       </c>
@@ -10202,7 +10259,7 @@
       <c r="AM40" s="82"/>
       <c r="AN40" s="62"/>
     </row>
-    <row r="41" spans="1:40" ht="30" customHeight="1">
+    <row r="41" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="89">
         <v>26</v>
       </c>
@@ -10246,7 +10303,7 @@
       <c r="AM41" s="82"/>
       <c r="AN41" s="62"/>
     </row>
-    <row r="42" spans="1:40" ht="30" customHeight="1">
+    <row r="42" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="89">
         <v>27</v>
       </c>
@@ -10290,7 +10347,7 @@
       <c r="AM42" s="82"/>
       <c r="AN42" s="62"/>
     </row>
-    <row r="43" spans="1:40" ht="30" customHeight="1">
+    <row r="43" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="89">
         <v>28</v>
       </c>
@@ -10334,7 +10391,7 @@
       <c r="AM43" s="82"/>
       <c r="AN43" s="62"/>
     </row>
-    <row r="44" spans="1:40" ht="30" customHeight="1">
+    <row r="44" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="89">
         <v>29</v>
       </c>
@@ -10382,7 +10439,7 @@
       <c r="AM44" s="82"/>
       <c r="AN44" s="62"/>
     </row>
-    <row r="45" spans="1:40" ht="30" customHeight="1">
+    <row r="45" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="89">
         <v>30</v>
       </c>
@@ -10426,7 +10483,7 @@
       <c r="AM45" s="82"/>
       <c r="AN45" s="62"/>
     </row>
-    <row r="46" spans="1:40" ht="30" customHeight="1" thickBot="1">
+    <row r="46" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="90">
         <v>31</v>
       </c>
@@ -10470,7 +10527,7 @@
       <c r="AM46" s="86"/>
       <c r="AN46" s="87"/>
     </row>
-    <row r="47" spans="1:40" ht="49.9" customHeight="1" thickBot="1">
+    <row r="47" spans="1:40" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="50" t="s">
         <v>114</v>
       </c>
@@ -10628,7 +10685,7 @@
       </c>
       <c r="AN47" s="55"/>
     </row>
-    <row r="49" spans="1:5" ht="28.5">
+    <row r="49" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A49" s="49" t="s">
         <v>115</v>
       </c>
@@ -10639,6 +10696,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B11:AG11"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AH11:AM11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="L8:M9"/>
     <mergeCell ref="AN11:AN15"/>
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="Z14:AA14"/>
@@ -10655,28 +10734,6 @@
     <mergeCell ref="AD12:AE12"/>
     <mergeCell ref="Z13:AC13"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AH11:AM11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="L8:M9"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B11:AG11"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="R13:U13"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
